--- a/Files/college_info/all_colleges/JBIT/JBIT_placements.xlsx
+++ b/Files/college_info/all_colleges/JBIT/JBIT_placements.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\JBIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1243DF99-FF68-46FF-A652-A6A0EA4B41EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0735F2-2290-42B4-BD87-77391A8DD4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F3473460-2FAD-4C62-8E53-489769D4999D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Virtusa</t>
   </si>
@@ -172,9 +175,6 @@
     <t>Infosys</t>
   </si>
   <si>
-    <t>Infosys_2</t>
-  </si>
-  <si>
     <t>Sapiens</t>
   </si>
   <si>
@@ -214,13 +214,19 @@
     <t>SALARY</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
     <t>OFFERS</t>
   </si>
   <si>
     <t>Sl.NO</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>HCL-2</t>
+  </si>
+  <si>
+    <t>Infosys-2</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -610,7 +627,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -623,16 +640,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1">
@@ -640,13 +657,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1">
@@ -654,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.6" thickBot="1">
@@ -668,27 +685,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30.6" thickBot="1">
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" thickBot="1">
@@ -696,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" thickBot="1">
@@ -710,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>6.5</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" thickBot="1">
@@ -724,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" thickBot="1">
@@ -738,10 +755,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1">
-        <v>4.26</v>
+        <v>6.25</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -752,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" thickBot="1">
@@ -766,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" thickBot="1">
@@ -780,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" thickBot="1">
@@ -794,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -808,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" thickBot="1">
@@ -822,13 +839,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" thickBot="1">
@@ -836,13 +853,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" thickBot="1">
@@ -850,10 +867,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -864,13 +881,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" thickBot="1">
@@ -878,13 +895,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" thickBot="1">
@@ -892,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
@@ -906,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" thickBot="1">
@@ -920,13 +937,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D22" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" thickBot="1">
@@ -934,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>4.5</v>
       </c>
       <c r="D23" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" thickBot="1">
@@ -948,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" thickBot="1">
@@ -962,13 +979,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>4.5</v>
       </c>
       <c r="D25" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" thickBot="1">
@@ -976,13 +993,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>5.5</v>
+        <v>4.26</v>
       </c>
       <c r="D26" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" thickBot="1">
@@ -990,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" thickBot="1">
@@ -1004,10 +1021,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1018,13 +1035,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" thickBot="1">
@@ -1032,13 +1049,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" thickBot="1">
@@ -1046,13 +1063,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.6" thickBot="1">
@@ -1060,13 +1077,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" thickBot="1">
@@ -1074,13 +1091,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" thickBot="1">
@@ -1088,13 +1105,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" thickBot="1">
@@ -1102,13 +1119,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" thickBot="1">
@@ -1116,13 +1133,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.6" thickBot="1">
@@ -1130,13 +1147,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" thickBot="1">
@@ -1144,13 +1161,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="D38" s="1">
         <v>4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" thickBot="1">
@@ -1158,13 +1175,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D39" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" thickBot="1">
@@ -1172,13 +1189,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" thickBot="1">
@@ -1186,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>3.6</v>
@@ -1200,10 +1217,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1214,27 +1231,27 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="D43" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.6" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30.6" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" thickBot="1">
@@ -1242,13 +1259,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.6" thickBot="1">
@@ -1256,13 +1273,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.6" thickBot="1">
@@ -1270,13 +1287,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D47" s="1">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" thickBot="1">
@@ -1284,13 +1301,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
-        <v>6.25</v>
+        <v>3.4</v>
       </c>
       <c r="D48" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.6" thickBot="1">
@@ -1298,13 +1315,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.6" thickBot="1">
@@ -1312,10 +1329,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1326,13 +1343,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.6" thickBot="1">
@@ -1340,13 +1357,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D52" s="1">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.6" thickBot="1">
@@ -1354,13 +1371,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.6" thickBot="1">
@@ -1368,13 +1385,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1">
         <v>3</v>
       </c>
       <c r="D54" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.6" thickBot="1">
@@ -1382,13 +1399,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1">
-        <v>2.16</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -1397,13 +1414,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1">
         <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.6" thickBot="1">
@@ -1411,10 +1428,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1425,13 +1442,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1">
-        <v>6</v>
+        <v>2.58</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.6" thickBot="1">
@@ -1439,13 +1456,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
-        <v>3.5</v>
+        <v>2.16</v>
       </c>
       <c r="D59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.6" thickBot="1">
@@ -1453,16 +1470,24 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1">
-        <v>6.5</v>
+        <v>2.16</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D60" xr:uid="{996B766B-8582-44F8-9523-A6979A2B7B0D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D60">
+      <sortCondition descending="1" ref="C1:C60"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
